--- a/biology/Zoologie/Centruroides_griseus/Centruroides_griseus.xlsx
+++ b/biology/Zoologie/Centruroides_griseus/Centruroides_griseus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centruroides griseus est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du banc de Porto Rico[1]. Elle se rencontre à Porto Rico, aux îles Vierges des États-Unis et aux îles Vierges britanniques[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du banc de Porto Rico. Elle se rencontre à Porto Rico, aux îles Vierges des États-Unis et aux îles Vierges britanniques.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 65 à 85 mm et les femelles de 60 à 70 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 65 à 85 mm et les femelles de 60 à 70 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Tityus griseus par C. L. Koch en 1844. Elle est placée dans le genre Centruroides par Francke et Sissom en 1980[3] qui dans le même temps place Centruroides dammanni en synonymie.
-Centruroides griseus borinquensis[4] a été placée en synonymie par Armas en 1988[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Tityus griseus par C. L. Koch en 1844. Elle est placée dans le genre Centruroides par Francke et Sissom en 1980 qui dans le même temps place Centruroides dammanni en synonymie.
+Centruroides griseus borinquensis a été placée en synonymie par Armas en 1988.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C. L. Koch, 1844 : Die Arachniden. Nürnberg, vol. 11, p. 1-174 (texte intégral).</t>
         </is>
